--- a/Copy of BehindClosedDoors_SoundAssetList.xlsx
+++ b/Copy of BehindClosedDoors_SoundAssetList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\ISE 2\BehindClosedDoors_Git\BehindClosedDoors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C853D3B-B9EA-4586-AF28-D6FF52F113F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E1368-F2C9-465A-BFA3-0153F0BEEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D6966E3A-088F-4B41-946F-FE7DBD20A81C}"/>
   </bookViews>
@@ -944,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,9 +957,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1278,23 +1278,23 @@
   </sheetPr>
   <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,12 +1307,12 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1328,13 +1328,13 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>47</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>137</v>
@@ -1450,7 +1450,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>48</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>49</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>138</v>
@@ -1538,7 +1538,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>59</v>
@@ -1562,7 +1562,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1586,7 +1586,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>139</v>
@@ -1610,7 +1610,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>53</v>
@@ -1674,7 +1674,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>56</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>55</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>64</v>
@@ -1808,7 +1808,7 @@
       <c r="O18" s="7"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="E19" s="28"/>
       <c r="F19" s="7"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>66</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>68</v>
@@ -1906,7 +1906,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1998,7 +1998,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2043,7 +2043,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2063,7 +2063,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2083,7 +2083,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2103,7 +2103,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2123,7 +2123,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2143,7 +2143,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2163,7 +2163,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2183,7 +2183,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2203,7 +2203,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2223,7 +2223,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2243,7 +2243,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2263,7 +2263,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2283,7 +2283,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2305,7 +2305,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2325,7 +2325,7 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2345,7 +2345,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2365,7 +2365,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2385,7 +2385,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2405,7 +2405,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2425,7 +2425,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2445,7 +2445,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2465,7 +2465,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2485,7 +2485,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2505,7 +2505,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="11"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2525,7 +2525,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2545,7 +2545,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2565,7 +2565,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="11"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2585,7 +2585,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="11"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2605,7 +2605,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="11"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2625,7 +2625,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="11"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2645,7 +2645,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="11"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2665,7 +2665,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="11"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2685,7 +2685,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="11"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2705,7 +2705,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="11"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>26</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="11"/>
     </row>
-    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>105</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="11"/>
     </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="11" t="s">
         <v>107</v>
@@ -2777,7 +2777,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="7" t="s">
         <v>108</v>
@@ -2801,7 +2801,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="11"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2821,7 +2821,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="11"/>
     </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="7" t="s">
         <v>113</v>
@@ -2871,7 +2871,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="11"/>
     </row>
-    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="7" t="s">
         <v>114</v>
@@ -2895,7 +2895,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="11"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="7" t="s">
         <v>119</v>
@@ -2919,7 +2919,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="11"/>
     </row>
-    <row r="71" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="7" t="s">
         <v>120</v>
@@ -2943,7 +2943,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="7" t="s">
         <v>123</v>
@@ -2967,7 +2967,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="11"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="7" t="s">
         <v>125</v>
@@ -2991,7 +2991,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="11"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="7" t="s">
         <v>127</v>
@@ -3015,7 +3015,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="11"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="7" t="s">
         <v>129</v>
@@ -3039,7 +3039,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="11"/>
     </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="7" t="s">
         <v>131</v>
@@ -3063,7 +3063,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="11"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="7" t="s">
         <v>112</v>
@@ -3085,7 +3085,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3105,7 +3105,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="11"/>
     </row>
-    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>134</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="11"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3153,7 +3153,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="11"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3173,7 +3173,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>140</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="33"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -3199,7 +3199,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="11"/>
     </row>
-    <row r="83" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="7" t="s">
         <v>145</v>
@@ -3213,7 +3213,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="33"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -3223,7 +3223,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="11"/>
     </row>
-    <row r="84" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7" t="s">
         <v>146</v>
@@ -3237,7 +3237,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="33"/>
+      <c r="J84" s="29"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -3247,7 +3247,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="11"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="7" t="s">
         <v>147</v>
@@ -3259,7 +3259,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="33"/>
+      <c r="J85" s="29"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -3269,7 +3269,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="11"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3279,7 +3279,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="33"/>
+      <c r="J86" s="29"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -3289,7 +3289,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="11"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3299,7 +3299,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="33"/>
+      <c r="J87" s="29"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -3309,7 +3309,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="11"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3319,7 +3319,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="33"/>
+      <c r="J88" s="29"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -3329,7 +3329,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="11"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3339,7 +3339,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="33"/>
+      <c r="J89" s="29"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -3349,7 +3349,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="11"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3359,7 +3359,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
-      <c r="J90" s="33"/>
+      <c r="J90" s="29"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -3369,7 +3369,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="11"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>27</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="11"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>61</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="11"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="7" t="s">
         <v>63</v>
@@ -3441,7 +3441,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="11"/>
     </row>
-    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="7" t="s">
         <v>97</v>
@@ -3465,7 +3465,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="11"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3485,7 +3485,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3505,7 +3505,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="11"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3525,7 +3525,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="11"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>28</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="11"/>
     </row>
-    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>85</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="11"/>
     </row>
-    <row r="100" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="7" t="s">
         <v>86</v>
@@ -3601,7 +3601,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="11"/>
     </row>
-    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="7" t="s">
         <v>90</v>
@@ -3627,7 +3627,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="11"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3647,7 +3647,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="11"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3667,7 +3667,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="11"/>
     </row>
-    <row r="104" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>92</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="11"/>
     </row>
-    <row r="105" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="7" t="s">
         <v>95</v>
@@ -3719,7 +3719,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="11"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3739,7 +3739,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="11"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3759,7 +3759,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="11"/>
     </row>
-    <row r="108" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>102</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="11"/>
     </row>
-    <row r="109" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="7" t="s">
         <v>101</v>
@@ -3809,7 +3809,7 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="11"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3829,7 +3829,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="11"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3849,7 +3849,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="11"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3869,7 +3869,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="11"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3889,7 +3889,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="11"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3909,7 +3909,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="11"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3929,7 +3929,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="11"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="5"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3949,7 +3949,7 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="11"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="20"/>
       <c r="C117" s="7"/>
@@ -3969,7 +3969,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="11"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
         <v>29</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="11"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="5"/>
       <c r="B119" s="20"/>
       <c r="C119" s="7"/>
@@ -4011,7 +4011,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="11"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4031,7 +4031,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="11"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4051,7 +4051,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="11"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4071,7 +4071,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="11"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>30</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="11"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4113,7 +4113,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="11"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4133,7 +4133,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="11"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4153,7 +4153,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="11"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4173,7 +4173,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="11"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4193,7 +4193,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="11"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4213,7 +4213,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="11"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4233,7 +4233,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="11"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4253,7 +4253,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="11"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="5"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4273,7 +4273,7 @@
       <c r="Q132" s="7"/>
       <c r="R132" s="11"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4293,7 +4293,7 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="11"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4313,7 +4313,7 @@
       <c r="Q134" s="7"/>
       <c r="R134" s="11"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4333,7 +4333,7 @@
       <c r="Q135" s="7"/>
       <c r="R135" s="11"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4353,7 +4353,7 @@
       <c r="Q136" s="7"/>
       <c r="R136" s="11"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4373,7 +4373,7 @@
       <c r="Q137" s="7"/>
       <c r="R137" s="11"/>
     </row>
-    <row r="138" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4393,7 +4393,7 @@
       <c r="Q138" s="7"/>
       <c r="R138" s="11"/>
     </row>
-    <row r="139" spans="1:18" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -4406,12 +4406,12 @@
       <c r="D139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E139" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="32"/>
       <c r="I139" s="2" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="Q139" s="7"/>
       <c r="R139" s="11"/>
     </row>
-    <row r="140" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4449,7 +4449,7 @@
       <c r="Q140" s="7"/>
       <c r="R140" s="11"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="Q141" s="7"/>
       <c r="R141" s="11"/>
     </row>
-    <row r="142" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>103</v>
       </c>
@@ -4495,22 +4495,22 @@
       <c r="Q142" s="7"/>
       <c r="R142" s="11"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L143" s="27"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L144" s="27"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L145" s="27"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L146" s="27"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L147" s="27"/>
     </row>
-    <row r="148" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4523,12 +4523,12 @@
       <c r="D148" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E148" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="32"/>
       <c r="I148" s="2" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="L148" s="27"/>
     </row>
-    <row r="149" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4554,7 +4554,7 @@
       <c r="K149" s="5"/>
       <c r="L149" s="27"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>69</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="K150" s="19"/>
       <c r="L150" s="25"/>
     </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B151" s="22" t="s">
         <v>148</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="L151" s="27"/>
     </row>
-    <row r="152" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B152" s="23" t="s">
         <v>74</v>
       </c>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="L152" s="27"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>149</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="L153" s="27"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>150</v>
       </c>
@@ -4606,25 +4606,25 @@
       </c>
       <c r="L154" s="27"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L155" s="27"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L156" s="27"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L157" s="27"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L158" s="27"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L159" s="27"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L160" s="27"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
         <v>79</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="K161" s="19"/>
       <c r="L161" s="25"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>78</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>81</v>
       </c>
@@ -4656,12 +4656,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>83</v>
       </c>
@@ -4690,369 +4690,369 @@
       <selection activeCell="A53" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="21"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="21"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>101</v>
       </c>
@@ -5063,21 +5063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100098EA4BA84433B4C97A8ED9779304775" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2e32abad7c2e64c17bd8073a1e252aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d575801-39a6-49f5-aa6e-d88a3ca736b1" xmlns:ns4="84aee116-6e30-4a29-ac87-ed169b2a9d06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3340a10c7f80ad9eece3709104ce72bf" ns3:_="" ns4:_="">
     <xsd:import namespace="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
@@ -5300,10 +5285,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6840F517-45A4-40A1-BC69-3B3E1EEDAAC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115F22CC-BE7B-4D5F-BADC-51D3547B18C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
+    <ds:schemaRef ds:uri="84aee116-6e30-4a29-ac87-ed169b2a9d06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5326,20 +5337,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115F22CC-BE7B-4D5F-BADC-51D3547B18C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6840F517-45A4-40A1-BC69-3B3E1EEDAAC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
-    <ds:schemaRef ds:uri="84aee116-6e30-4a29-ac87-ed169b2a9d06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Copy of BehindClosedDoors_SoundAssetList.xlsx
+++ b/Copy of BehindClosedDoors_SoundAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\ISE 2\BehindClosedDoors_Git\BehindClosedDoors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E1368-F2C9-465A-BFA3-0153F0BEEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BFB6A-62AC-412D-BF17-A56E647AF19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D6966E3A-088F-4B41-946F-FE7DBD20A81C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>Bible Asset List Library</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Increasing with RTPC_Exhaust</t>
   </si>
   <si>
-    <t>RTPC_SelfConscious</t>
-  </si>
-  <si>
     <t>Increase with non stop running
 Decrease with stop runing
 Variate faster with RTPC_SelfConscious</t>
@@ -594,6 +591,12 @@
   </si>
   <si>
     <t>State:Idle/Walk/Run…</t>
+  </si>
+  <si>
+    <t>RTPC_PLYR_Fear</t>
+  </si>
+  <si>
+    <t>RTPC_PLYR_SelfConscious</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1281,8 @@
   </sheetPr>
   <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1429,7 +1432,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1517,7 +1520,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1589,7 +1592,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2729,14 +2732,14 @@
     </row>
     <row r="63" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="7"/>
@@ -2756,11 +2759,11 @@
     <row r="64" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="7"/>
@@ -2780,11 +2783,11 @@
     <row r="65" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="7"/>
@@ -2823,14 +2826,14 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="7"/>
@@ -2850,11 +2853,11 @@
     <row r="68" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="7"/>
@@ -2874,11 +2877,11 @@
     <row r="69" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="7"/>
@@ -2898,11 +2901,11 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="7"/>
@@ -2922,11 +2925,11 @@
     <row r="71" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="7"/>
@@ -2946,11 +2949,11 @@
     <row r="72" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="7"/>
@@ -2970,11 +2973,11 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="7"/>
@@ -2994,11 +2997,11 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="7"/>
@@ -3018,11 +3021,11 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="7"/>
@@ -3042,11 +3045,11 @@
     <row r="76" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="7"/>
@@ -3066,7 +3069,7 @@
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3107,14 +3110,14 @@
     </row>
     <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="7"/>
@@ -3175,14 +3178,14 @@
     </row>
     <row r="82" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3202,11 +3205,11 @@
     <row r="83" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -3226,11 +3229,11 @@
     <row r="84" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -3250,7 +3253,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3444,11 +3447,11 @@
     <row r="94" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="7"/>
@@ -3549,14 +3552,14 @@
     </row>
     <row r="99" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -3578,11 +3581,11 @@
     <row r="100" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -3604,11 +3607,11 @@
     <row r="101" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -3669,14 +3672,14 @@
     </row>
     <row r="104" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="7"/>
@@ -3698,11 +3701,11 @@
     <row r="105" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -3761,14 +3764,14 @@
     </row>
     <row r="108" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -3790,7 +3793,7 @@
     <row r="109" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -4473,12 +4476,12 @@
     </row>
     <row r="142" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -4572,41 +4575,44 @@
     </row>
     <row r="151" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B151" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L151" s="27"/>
     </row>
     <row r="152" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B152" s="23" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L152" s="27"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L153" s="27"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
+        <v>151</v>
+      </c>
+      <c r="L154" s="27"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
         <v>152</v>
       </c>
-      <c r="L154" s="27"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L155" s="27"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -4626,7 +4632,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="19"/>
@@ -4642,31 +4648,31 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" t="s">
         <v>81</v>
-      </c>
-      <c r="D163" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" t="s">
         <v>83</v>
-      </c>
-      <c r="D168" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4895,17 +4901,17 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
@@ -4913,57 +4919,57 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -4971,7 +4977,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
@@ -4995,7 +5001,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -5012,17 +5018,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
@@ -5033,12 +5039,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
@@ -5049,12 +5055,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5063,6 +5069,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100098EA4BA84433B4C97A8ED9779304775" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2e32abad7c2e64c17bd8073a1e252aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d575801-39a6-49f5-aa6e-d88a3ca736b1" xmlns:ns4="84aee116-6e30-4a29-ac87-ed169b2a9d06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3340a10c7f80ad9eece3709104ce72bf" ns3:_="" ns4:_="">
     <xsd:import namespace="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
@@ -5285,36 +5306,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115F22CC-BE7B-4D5F-BADC-51D3547B18C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6840F517-45A4-40A1-BC69-3B3E1EEDAAC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
-    <ds:schemaRef ds:uri="84aee116-6e30-4a29-ac87-ed169b2a9d06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5337,9 +5332,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6840F517-45A4-40A1-BC69-3B3E1EEDAAC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115F22CC-BE7B-4D5F-BADC-51D3547B18C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7d575801-39a6-49f5-aa6e-d88a3ca736b1"/>
+    <ds:schemaRef ds:uri="84aee116-6e30-4a29-ac87-ed169b2a9d06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>